--- a/샘플-학생정보 데이터(2023-12-14).xlsx
+++ b/샘플-학생정보 데이터(2023-12-14).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050201\Documents\workspace\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505202\Documents\workspace\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA07DF5B-291E-4A34-A184-131B075DF943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D860D9F4-6774-4420-91F3-2240FEABEC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1880,7 +1880,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1896,9 +1896,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2217,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -4268,18 +4265,19 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>533</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4290,7 +4288,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>534</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4301,7 +4299,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>535</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -4312,7 +4310,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>536</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4323,7 +4321,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>537</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4334,7 +4332,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>538</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4345,7 +4343,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>539</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4356,7 +4354,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>540</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4367,7 +4365,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>541</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -4378,7 +4376,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>542</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -4389,7 +4387,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>543</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4400,7 +4398,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>544</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4411,7 +4409,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>545</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -4422,7 +4420,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>546</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4433,7 +4431,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>547</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4444,7 +4442,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>548</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4455,7 +4453,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>549</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4466,7 +4464,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>550</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4477,7 +4475,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>551</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4488,7 +4486,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>552</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -4499,7 +4497,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>553</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4510,7 +4508,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>554</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4521,7 +4519,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>555</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -4532,7 +4530,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>556</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4543,7 +4541,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>557</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -4554,7 +4552,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>558</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -4565,7 +4563,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>559</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4576,7 +4574,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>560</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -4587,7 +4585,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>561</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -4598,7 +4596,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>562</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4609,7 +4607,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>563</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -4620,7 +4618,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>564</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -4631,7 +4629,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>565</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -4642,7 +4640,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>566</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -4653,7 +4651,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>567</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -4664,7 +4662,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>568</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -4675,7 +4673,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>569</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -4686,7 +4684,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>570</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -4697,7 +4695,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="21.95" customHeight="1">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>571</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -4708,7 +4706,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.25">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B40" s="5" t="s">
